--- a/prune_result.xlsx
+++ b/prune_result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>acc1</t>
   </si>
@@ -37,79 +37,34 @@
     <t>rem_trainable_param</t>
   </si>
   <si>
-    <t>50.0</t>
+    <t>69.14</t>
   </si>
   <si>
     <t>None</t>
   </si>
   <si>
+    <t>69.159996</t>
+  </si>
+  <si>
+    <t>4_2_1</t>
+  </si>
+  <si>
+    <t>0.0037</t>
+  </si>
+  <si>
+    <t>0.0044</t>
+  </si>
+  <si>
+    <t>68.976</t>
+  </si>
+  <si>
     <t>2_1_1</t>
   </si>
   <si>
-    <t>0.0100</t>
-  </si>
-  <si>
-    <t>0.0106</t>
-  </si>
-  <si>
-    <t>0.0098</t>
-  </si>
-  <si>
-    <t>0.0104</t>
-  </si>
-  <si>
-    <t>2_2_1</t>
-  </si>
-  <si>
-    <t>0.0096</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>0.0094</t>
-  </si>
-  <si>
-    <t>0.0097</t>
-  </si>
-  <si>
-    <t>5_2_1</t>
-  </si>
-  <si>
-    <t>0.0092</t>
-  </si>
-  <si>
-    <t>0.0095</t>
-  </si>
-  <si>
-    <t>3_1_1</t>
-  </si>
-  <si>
-    <t>0.0091</t>
-  </si>
-  <si>
-    <t>0.0089</t>
-  </si>
-  <si>
-    <t>0.0087</t>
-  </si>
-  <si>
-    <t>3_2_1</t>
-  </si>
-  <si>
-    <t>0.0085</t>
-  </si>
-  <si>
-    <t>0.0090</t>
-  </si>
-  <si>
-    <t>0.0084</t>
-  </si>
-  <si>
-    <t>0.0082</t>
-  </si>
-  <si>
-    <t>0.0083</t>
+    <t>0.0036</t>
+  </si>
+  <si>
+    <t>0.0058</t>
   </si>
 </sst>
 </file>
@@ -467,13 +422,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:4">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -483,38 +438,8 @@
       <c r="D1" s="1">
         <v>2</v>
       </c>
-      <c r="E1" s="1">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -522,43 +447,13 @@
         <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -566,40 +461,13 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -607,40 +475,13 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D4">
-        <v>18</v>
-      </c>
-      <c r="E4">
-        <v>20</v>
-      </c>
-      <c r="F4">
-        <v>16</v>
-      </c>
-      <c r="G4">
-        <v>92</v>
-      </c>
-      <c r="H4">
-        <v>56</v>
-      </c>
-      <c r="I4">
-        <v>16</v>
-      </c>
-      <c r="J4">
-        <v>52</v>
-      </c>
-      <c r="K4">
-        <v>40</v>
-      </c>
-      <c r="L4">
-        <v>44</v>
-      </c>
-      <c r="M4">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -648,40 +489,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" t="s">
-        <v>29</v>
-      </c>
-      <c r="M5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -689,40 +503,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" t="s">
-        <v>21</v>
-      </c>
-      <c r="H6" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -730,40 +517,13 @@
         <v>11689512</v>
       </c>
       <c r="C7">
-        <v>11666432</v>
+        <v>11606532</v>
       </c>
       <c r="D7">
-        <v>11645660</v>
-      </c>
-      <c r="E7">
-        <v>11622580</v>
-      </c>
-      <c r="F7">
-        <v>11604116</v>
-      </c>
-      <c r="G7">
-        <v>10756060</v>
-      </c>
-      <c r="H7">
-        <v>10659180</v>
-      </c>
-      <c r="I7">
-        <v>10640716</v>
-      </c>
-      <c r="J7">
-        <v>10550756</v>
-      </c>
-      <c r="K7">
-        <v>10458516</v>
-      </c>
-      <c r="L7">
-        <v>10357052</v>
-      </c>
-      <c r="M7">
-        <v>10340896</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>11592684</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -771,37 +531,10 @@
         <v>11689512</v>
       </c>
       <c r="C8">
-        <v>11666432</v>
+        <v>11606532</v>
       </c>
       <c r="D8">
-        <v>11645660</v>
-      </c>
-      <c r="E8">
-        <v>11622580</v>
-      </c>
-      <c r="F8">
-        <v>11604116</v>
-      </c>
-      <c r="G8">
-        <v>10756060</v>
-      </c>
-      <c r="H8">
-        <v>10659180</v>
-      </c>
-      <c r="I8">
-        <v>10640716</v>
-      </c>
-      <c r="J8">
-        <v>10550756</v>
-      </c>
-      <c r="K8">
-        <v>10458516</v>
-      </c>
-      <c r="L8">
-        <v>10357052</v>
-      </c>
-      <c r="M8">
-        <v>10340896</v>
+        <v>11592684</v>
       </c>
     </row>
   </sheetData>

--- a/prune_result.xlsx
+++ b/prune_result.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="70">
   <si>
     <t>acc1</t>
   </si>
@@ -65,6 +65,165 @@
   </si>
   <si>
     <t>0.0058</t>
+  </si>
+  <si>
+    <t>68.866</t>
+  </si>
+  <si>
+    <t>0.0048</t>
+  </si>
+  <si>
+    <t>68.754</t>
+  </si>
+  <si>
+    <t>0.0035</t>
+  </si>
+  <si>
+    <t>0.0054</t>
+  </si>
+  <si>
+    <t>68.645996</t>
+  </si>
+  <si>
+    <t>0.0034</t>
+  </si>
+  <si>
+    <t>0.0043</t>
+  </si>
+  <si>
+    <t>68.418</t>
+  </si>
+  <si>
+    <t>67.918</t>
+  </si>
+  <si>
+    <t>0.0033</t>
+  </si>
+  <si>
+    <t>67.965996</t>
+  </si>
+  <si>
+    <t>5_2_1</t>
+  </si>
+  <si>
+    <t>0.0032</t>
+  </si>
+  <si>
+    <t>67.794</t>
+  </si>
+  <si>
+    <t>2_2_1</t>
+  </si>
+  <si>
+    <t>67.925995</t>
+  </si>
+  <si>
+    <t>4_1_1</t>
+  </si>
+  <si>
+    <t>0.0031</t>
+  </si>
+  <si>
+    <t>67.832</t>
+  </si>
+  <si>
+    <t>0.0030</t>
+  </si>
+  <si>
+    <t>0.0050</t>
+  </si>
+  <si>
+    <t>67.614</t>
+  </si>
+  <si>
+    <t>0.0051</t>
+  </si>
+  <si>
+    <t>67.678</t>
+  </si>
+  <si>
+    <t>3_1_1</t>
+  </si>
+  <si>
+    <t>0.0029</t>
+  </si>
+  <si>
+    <t>67.63</t>
+  </si>
+  <si>
+    <t>67.409996</t>
+  </si>
+  <si>
+    <t>0.0028</t>
+  </si>
+  <si>
+    <t>0.0042</t>
+  </si>
+  <si>
+    <t>67.184</t>
+  </si>
+  <si>
+    <t>0.0027</t>
+  </si>
+  <si>
+    <t>67.021996</t>
+  </si>
+  <si>
+    <t>66.61</t>
+  </si>
+  <si>
+    <t>0.0026</t>
+  </si>
+  <si>
+    <t>0.0039</t>
+  </si>
+  <si>
+    <t>66.656</t>
+  </si>
+  <si>
+    <t>66.386</t>
+  </si>
+  <si>
+    <t>0.0025</t>
+  </si>
+  <si>
+    <t>65.904</t>
+  </si>
+  <si>
+    <t>65.313995</t>
+  </si>
+  <si>
+    <t>0.0024</t>
+  </si>
+  <si>
+    <t>65.388</t>
+  </si>
+  <si>
+    <t>5_1_1</t>
+  </si>
+  <si>
+    <t>65.453995</t>
+  </si>
+  <si>
+    <t>0.0023</t>
+  </si>
+  <si>
+    <t>65.034</t>
+  </si>
+  <si>
+    <t>65.072</t>
+  </si>
+  <si>
+    <t>3_2_1</t>
+  </si>
+  <si>
+    <t>0.0022</t>
+  </si>
+  <si>
+    <t>64.626</t>
+  </si>
+  <si>
+    <t>64.784</t>
   </si>
 </sst>
 </file>
@@ -422,13 +581,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:AE8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:31">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -438,8 +597,89 @@
       <c r="D1" s="1">
         <v>2</v>
       </c>
+      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>29</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:31">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -452,8 +692,89 @@
       <c r="D2" t="s">
         <v>13</v>
       </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+      <c r="M2" t="s">
+        <v>36</v>
+      </c>
+      <c r="N2" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R2" t="s">
+        <v>48</v>
+      </c>
+      <c r="S2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U2" t="s">
+        <v>54</v>
+      </c>
+      <c r="V2" t="s">
+        <v>55</v>
+      </c>
+      <c r="W2" t="s">
+        <v>57</v>
+      </c>
+      <c r="X2" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>60</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:31">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -466,8 +787,86 @@
       <c r="D3" t="s">
         <v>14</v>
       </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" t="s">
+        <v>32</v>
+      </c>
+      <c r="L3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" t="s">
+        <v>42</v>
+      </c>
+      <c r="P3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" t="s">
+        <v>32</v>
+      </c>
+      <c r="S3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T3" t="s">
+        <v>42</v>
+      </c>
+      <c r="U3" t="s">
+        <v>34</v>
+      </c>
+      <c r="V3" t="s">
+        <v>42</v>
+      </c>
+      <c r="W3" t="s">
+        <v>42</v>
+      </c>
+      <c r="X3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>61</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>66</v>
+      </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:31">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -480,8 +879,86 @@
       <c r="D4">
         <v>12</v>
       </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <v>7</v>
+      </c>
+      <c r="J4">
+        <v>28</v>
+      </c>
+      <c r="K4">
+        <v>8</v>
+      </c>
+      <c r="L4">
+        <v>18</v>
+      </c>
+      <c r="M4">
+        <v>8</v>
+      </c>
+      <c r="N4">
+        <v>8</v>
+      </c>
+      <c r="O4">
+        <v>20</v>
+      </c>
+      <c r="P4">
+        <v>8</v>
+      </c>
+      <c r="Q4">
+        <v>8</v>
+      </c>
+      <c r="R4">
+        <v>7</v>
+      </c>
+      <c r="S4">
+        <v>5</v>
+      </c>
+      <c r="T4">
+        <v>20</v>
+      </c>
+      <c r="U4">
+        <v>26</v>
+      </c>
+      <c r="V4">
+        <v>16</v>
+      </c>
+      <c r="W4">
+        <v>20</v>
+      </c>
+      <c r="X4">
+        <v>12</v>
+      </c>
+      <c r="Y4">
+        <v>44</v>
+      </c>
+      <c r="Z4">
+        <v>30</v>
+      </c>
+      <c r="AA4">
+        <v>12</v>
+      </c>
+      <c r="AB4">
+        <v>12</v>
+      </c>
+      <c r="AC4">
+        <v>10</v>
+      </c>
+      <c r="AD4">
+        <v>12</v>
+      </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:31">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -494,8 +971,86 @@
       <c r="D5" t="s">
         <v>15</v>
       </c>
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" t="s">
+        <v>35</v>
+      </c>
+      <c r="M5" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>46</v>
+      </c>
+      <c r="R5" t="s">
+        <v>49</v>
+      </c>
+      <c r="S5" t="s">
+        <v>49</v>
+      </c>
+      <c r="T5" t="s">
+        <v>52</v>
+      </c>
+      <c r="U5" t="s">
+        <v>52</v>
+      </c>
+      <c r="V5" t="s">
+        <v>56</v>
+      </c>
+      <c r="W5" t="s">
+        <v>56</v>
+      </c>
+      <c r="X5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>67</v>
+      </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:31">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -508,8 +1063,86 @@
       <c r="D6" t="s">
         <v>16</v>
       </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" t="s">
+        <v>38</v>
+      </c>
+      <c r="N6" t="s">
+        <v>40</v>
+      </c>
+      <c r="O6" t="s">
+        <v>35</v>
+      </c>
+      <c r="P6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>47</v>
+      </c>
+      <c r="R6" t="s">
+        <v>46</v>
+      </c>
+      <c r="S6" t="s">
+        <v>15</v>
+      </c>
+      <c r="T6" t="s">
+        <v>53</v>
+      </c>
+      <c r="U6" t="s">
+        <v>43</v>
+      </c>
+      <c r="V6" t="s">
+        <v>49</v>
+      </c>
+      <c r="W6" t="s">
+        <v>46</v>
+      </c>
+      <c r="X6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AB6" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD6" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:31">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
@@ -522,8 +1155,86 @@
       <c r="D7">
         <v>11592684</v>
       </c>
+      <c r="E7">
+        <v>11583452</v>
+      </c>
+      <c r="F7">
+        <v>11574220</v>
+      </c>
+      <c r="G7">
+        <v>11564988</v>
+      </c>
+      <c r="H7">
+        <v>11555756</v>
+      </c>
+      <c r="I7">
+        <v>11547678</v>
+      </c>
+      <c r="J7">
+        <v>11289574</v>
+      </c>
+      <c r="K7">
+        <v>11280342</v>
+      </c>
+      <c r="L7">
+        <v>11218098</v>
+      </c>
+      <c r="M7">
+        <v>11208866</v>
+      </c>
+      <c r="N7">
+        <v>11199634</v>
+      </c>
+      <c r="O7">
+        <v>11165034</v>
+      </c>
+      <c r="P7">
+        <v>11155802</v>
+      </c>
+      <c r="Q7">
+        <v>11146570</v>
+      </c>
+      <c r="R7">
+        <v>11138492</v>
+      </c>
+      <c r="S7">
+        <v>11132722</v>
+      </c>
+      <c r="T7">
+        <v>11098122</v>
+      </c>
+      <c r="U7">
+        <v>11008214</v>
+      </c>
+      <c r="V7">
+        <v>10980534</v>
+      </c>
+      <c r="W7">
+        <v>10945934</v>
+      </c>
+      <c r="X7">
+        <v>10925174</v>
+      </c>
+      <c r="Y7">
+        <v>10620958</v>
+      </c>
+      <c r="Z7">
+        <v>10482658</v>
+      </c>
+      <c r="AA7">
+        <v>10461898</v>
+      </c>
+      <c r="AB7">
+        <v>10434226</v>
+      </c>
+      <c r="AC7">
+        <v>10416926</v>
+      </c>
+      <c r="AD7">
+        <v>10389254</v>
+      </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:31">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -535,6 +1246,84 @@
       </c>
       <c r="D8">
         <v>11592684</v>
+      </c>
+      <c r="E8">
+        <v>11583452</v>
+      </c>
+      <c r="F8">
+        <v>11574220</v>
+      </c>
+      <c r="G8">
+        <v>11564988</v>
+      </c>
+      <c r="H8">
+        <v>11555756</v>
+      </c>
+      <c r="I8">
+        <v>11547678</v>
+      </c>
+      <c r="J8">
+        <v>11289574</v>
+      </c>
+      <c r="K8">
+        <v>11280342</v>
+      </c>
+      <c r="L8">
+        <v>11218098</v>
+      </c>
+      <c r="M8">
+        <v>11208866</v>
+      </c>
+      <c r="N8">
+        <v>11199634</v>
+      </c>
+      <c r="O8">
+        <v>11165034</v>
+      </c>
+      <c r="P8">
+        <v>11155802</v>
+      </c>
+      <c r="Q8">
+        <v>11146570</v>
+      </c>
+      <c r="R8">
+        <v>11138492</v>
+      </c>
+      <c r="S8">
+        <v>11132722</v>
+      </c>
+      <c r="T8">
+        <v>11098122</v>
+      </c>
+      <c r="U8">
+        <v>11008214</v>
+      </c>
+      <c r="V8">
+        <v>10980534</v>
+      </c>
+      <c r="W8">
+        <v>10945934</v>
+      </c>
+      <c r="X8">
+        <v>10925174</v>
+      </c>
+      <c r="Y8">
+        <v>10620958</v>
+      </c>
+      <c r="Z8">
+        <v>10482658</v>
+      </c>
+      <c r="AA8">
+        <v>10461898</v>
+      </c>
+      <c r="AB8">
+        <v>10434226</v>
+      </c>
+      <c r="AC8">
+        <v>10416926</v>
+      </c>
+      <c r="AD8">
+        <v>10389254</v>
       </c>
     </row>
   </sheetData>
